--- a/data/trans_orig/P5701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>385583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>353391</v>
+        <v>355406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>414199</v>
+        <v>419023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3737276160149801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3425250964152945</v>
+        <v>0.3444777597387632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4014630180789438</v>
+        <v>0.406139338438182</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>442</v>
@@ -765,19 +765,19 @@
         <v>441352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>406110</v>
+        <v>407052</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>472755</v>
+        <v>472285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3355998809591257</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3088024725194203</v>
+        <v>0.3095184248673037</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.359478649869348</v>
+        <v>0.3591214861594452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>833</v>
@@ -786,19 +786,19 @@
         <v>826935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>783665</v>
+        <v>783680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>871849</v>
+        <v>871176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3523617100532014</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3339242595572589</v>
+        <v>0.3339304813996657</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3714997294850447</v>
+        <v>0.3712132605879477</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>274384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247371</v>
+        <v>244670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>302679</v>
+        <v>301014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2659475101141563</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2397652346024953</v>
+        <v>0.2371471995950341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2933722182522959</v>
+        <v>0.2917587941673006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>376</v>
@@ -836,19 +836,19 @@
         <v>382611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>353014</v>
+        <v>355084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>416995</v>
+        <v>418855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2909340593758467</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2684290162143733</v>
+        <v>0.2700027549421279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3170791502189421</v>
+        <v>0.318493749128973</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -857,19 +857,19 @@
         <v>656995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>613047</v>
+        <v>616165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>697934</v>
+        <v>699237</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2799493977440551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2612227576774043</v>
+        <v>0.2625516879908405</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2973937077316789</v>
+        <v>0.2979488826219907</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>262764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>235853</v>
+        <v>236365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>289778</v>
+        <v>291169</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2546842737706345</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2286006459352251</v>
+        <v>0.2290976602529891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2808677930207163</v>
+        <v>0.2822160356975477</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>318</v>
@@ -907,19 +907,19 @@
         <v>328491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>299177</v>
+        <v>299190</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>361098</v>
+        <v>362199</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2497813015913243</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2274913800395867</v>
+        <v>0.2275009954555202</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.27457550745644</v>
+        <v>0.2754131232324007</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>584</v>
@@ -928,19 +928,19 @@
         <v>591254</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>552001</v>
+        <v>553606</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>631006</v>
+        <v>635575</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2519367609072845</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2352110115590279</v>
+        <v>0.2358945724054516</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.268875424706045</v>
+        <v>0.2708222011943837</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>88283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72176</v>
+        <v>72257</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109078</v>
+        <v>108653</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08556878236867711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06995676516938364</v>
+        <v>0.07003495114576144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1057237767965613</v>
+        <v>0.1053117772625548</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -978,19 +978,19 @@
         <v>146157</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124185</v>
+        <v>124586</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170025</v>
+        <v>169956</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1111362712231323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09442925938648983</v>
+        <v>0.09473433730144153</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1292852907371336</v>
+        <v>0.1292327975097656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -999,19 +999,19 @@
         <v>234440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>205581</v>
+        <v>205372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>266488</v>
+        <v>264720</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09989621518740771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08759918139266826</v>
+        <v>0.08751031932793593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1135522435543331</v>
+        <v>0.1127988240528752</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>20709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12949</v>
+        <v>12484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33094</v>
+        <v>32883</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02007181773155201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01255090178098252</v>
+        <v>0.01210000718920386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03207637986968448</v>
+        <v>0.03187190736775429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1049,19 +1049,19 @@
         <v>16503</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9118</v>
+        <v>9936</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26459</v>
+        <v>27320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0125484868505711</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006933534077135492</v>
+        <v>0.007555125305670342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0201190929891805</v>
+        <v>0.02077396959769089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1070,19 +1070,19 @@
         <v>37211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25921</v>
+        <v>25554</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53035</v>
+        <v>52114</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01585591610805124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0110451107643631</v>
+        <v>0.01088860786835355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0225986450381901</v>
+        <v>0.02220596905530907</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>826606</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>787740</v>
+        <v>788607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>871347</v>
+        <v>869106</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4881300222415275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4651791687572241</v>
+        <v>0.4656909820308971</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5145507873987095</v>
+        <v>0.5132275299875769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>730</v>
@@ -1195,19 +1195,19 @@
         <v>727929</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>692529</v>
+        <v>687692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>767556</v>
+        <v>766731</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4584882195902749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4361913236194977</v>
+        <v>0.4331446637126031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4834472570199075</v>
+        <v>0.48292733276748</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1529</v>
@@ -1216,19 +1216,19 @@
         <v>1554535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1497850</v>
+        <v>1495453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1612548</v>
+        <v>1609716</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4737867539174273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4565105097670289</v>
+        <v>0.455779995476768</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4914676247079351</v>
+        <v>0.4906045762381937</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>463091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>427401</v>
+        <v>427874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500435</v>
+        <v>497805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2734662820681015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2523905702893741</v>
+        <v>0.2526694641952502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2955187002716494</v>
+        <v>0.2939657408952777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>451</v>
@@ -1266,19 +1266,19 @@
         <v>456989</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>420126</v>
+        <v>420020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491633</v>
+        <v>492142</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2878355579426092</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2646173554011448</v>
+        <v>0.264550429714247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3096563021769987</v>
+        <v>0.3099770053942366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>911</v>
@@ -1287,19 +1287,19 @@
         <v>920080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>869112</v>
+        <v>871154</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>973086</v>
+        <v>971755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2804193807684727</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2648854795550871</v>
+        <v>0.2655077973603533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2965745011421573</v>
+        <v>0.2961687126339861</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>315673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>284427</v>
+        <v>285484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>348661</v>
+        <v>348984</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1864121421773379</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1679607746353706</v>
+        <v>0.1685849360143277</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2058925622227653</v>
+        <v>0.2060831827104798</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>242</v>
@@ -1337,19 +1337,19 @@
         <v>252074</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224793</v>
+        <v>225795</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>282164</v>
+        <v>280350</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1587693501682695</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1415866264023189</v>
+        <v>0.1422174976816492</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1777218603229349</v>
+        <v>0.1765793983511704</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>558</v>
@@ -1358,19 +1358,19 @@
         <v>567747</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>526522</v>
+        <v>524727</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>613284</v>
+        <v>614409</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1730361681288565</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1604717212171279</v>
+        <v>0.1599246457725483</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1869148942172698</v>
+        <v>0.1872577363883444</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>64340</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48757</v>
+        <v>49062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81536</v>
+        <v>84325</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03799441634823886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02879222809579041</v>
+        <v>0.02897202184491609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04814868075850226</v>
+        <v>0.04979580185294399</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1408,19 +1408,19 @@
         <v>110867</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92926</v>
+        <v>91942</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132580</v>
+        <v>134214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06983017566336745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05852996702041208</v>
+        <v>0.05791021956047701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08350602943356068</v>
+        <v>0.08453490557534779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -1429,19 +1429,19 @@
         <v>175208</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149884</v>
+        <v>146773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204062</v>
+        <v>203510</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05339931069730325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04568120964245794</v>
+        <v>0.04473292550429536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06219357934084572</v>
+        <v>0.06202512349726837</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>23703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13799</v>
+        <v>13414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37687</v>
+        <v>37629</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01399713716479438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008148704777306172</v>
+        <v>0.00792103818336889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02225523893901872</v>
+        <v>0.02222071169939412</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -1479,19 +1479,19 @@
         <v>39814</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26701</v>
+        <v>27324</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55719</v>
+        <v>54489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02507669663547892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01681761594630826</v>
+        <v>0.01720984938437624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0350947351509031</v>
+        <v>0.03431985965864238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -1500,19 +1500,19 @@
         <v>63517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49287</v>
+        <v>47761</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87513</v>
+        <v>83916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01935838648794035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01502169377872999</v>
+        <v>0.0145564992489977</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0266719371439515</v>
+        <v>0.02557557056347146</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>262150</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>240088</v>
+        <v>238235</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>286864</v>
+        <v>287963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4754185568558627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4354082779815461</v>
+        <v>0.4320487855703954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5202381921618061</v>
+        <v>0.5222316266853181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>231</v>
@@ -1625,19 +1625,19 @@
         <v>240806</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219501</v>
+        <v>216682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>262760</v>
+        <v>264310</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5054583523080103</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4607383900983702</v>
+        <v>0.4548214332508408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5515399746700792</v>
+        <v>0.5547933260337345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>480</v>
@@ -1646,19 +1646,19 @@
         <v>502956</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>471807</v>
+        <v>470941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>534840</v>
+        <v>536484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4893425066440004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4590369088445693</v>
+        <v>0.4581940354310588</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5203633296921962</v>
+        <v>0.5219631560972656</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>172666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150102</v>
+        <v>150351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194513</v>
+        <v>194518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3131374013665063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2722154018409005</v>
+        <v>0.2726677538914155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3527574021658607</v>
+        <v>0.3527659002723683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -1696,19 +1696,19 @@
         <v>124405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103336</v>
+        <v>106317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143481</v>
+        <v>144217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2611297470548749</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2169048254694146</v>
+        <v>0.2231628798055648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3011707242133493</v>
+        <v>0.3027144416598944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>284</v>
@@ -1717,19 +1717,19 @@
         <v>297072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>270158</v>
+        <v>268764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326350</v>
+        <v>327404</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2890309799899849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2628459500828551</v>
+        <v>0.2614895776749929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3175168381992112</v>
+        <v>0.318542113371886</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>84543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67673</v>
+        <v>66808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>104453</v>
+        <v>102762</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1533212396665987</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1227274213559716</v>
+        <v>0.121159686340651</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1894293773449407</v>
+        <v>0.1863630839254893</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -1767,19 +1767,19 @@
         <v>72088</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58740</v>
+        <v>56529</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89245</v>
+        <v>89883</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1513154076027978</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.123295674209758</v>
+        <v>0.1186560286924473</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1873271522088037</v>
+        <v>0.1886655749293195</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>149</v>
@@ -1788,19 +1788,19 @@
         <v>156631</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134905</v>
+        <v>134071</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>181407</v>
+        <v>182711</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1523915028118891</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1312531885851468</v>
+        <v>0.1304424107333221</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1764969580209674</v>
+        <v>0.177765207793721</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>24878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15888</v>
+        <v>15925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35959</v>
+        <v>36933</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04511653012454721</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02881274742526941</v>
+        <v>0.0288813725142393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06521308712952666</v>
+        <v>0.06698031622046066</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1838,19 +1838,19 @@
         <v>32428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22595</v>
+        <v>22741</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44110</v>
+        <v>46568</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06806746833103754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04742812397929989</v>
+        <v>0.0477345549342587</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09258805523263579</v>
+        <v>0.09774659594380693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -1859,19 +1859,19 @@
         <v>57306</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43367</v>
+        <v>44198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73502</v>
+        <v>73647</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05575467550362888</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04219331178967136</v>
+        <v>0.04300211010717347</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07151275447737283</v>
+        <v>0.07165353352440541</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>7172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2641</v>
+        <v>2563</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17135</v>
+        <v>16316</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01300627198648519</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00479008632475265</v>
+        <v>0.00464785981017066</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03107586792937009</v>
+        <v>0.029589590428554</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1909,19 +1909,19 @@
         <v>6684</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2369</v>
+        <v>2501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14767</v>
+        <v>15468</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01402902470327949</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00497170707807412</v>
+        <v>0.005249585859048506</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03099631464890204</v>
+        <v>0.03246768983855818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1930,19 +1930,19 @@
         <v>13855</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6498</v>
+        <v>7118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24083</v>
+        <v>25645</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01348033505049673</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006322535043439517</v>
+        <v>0.006925043361295256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02343131303176209</v>
+        <v>0.0249508560197691</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>1474338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1416693</v>
+        <v>1413009</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1529549</v>
+        <v>1533413</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4499676159835151</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4323741905849952</v>
+        <v>0.4312500587457626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4668180520045051</v>
+        <v>0.4679971368025331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1403</v>
@@ -2055,19 +2055,19 @@
         <v>1410087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1352106</v>
+        <v>1347491</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1465668</v>
+        <v>1463256</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4172846806334117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4001265132106425</v>
+        <v>0.39876085393144</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4337326824525874</v>
+        <v>0.4330187060014079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2842</v>
@@ -2076,19 +2076,19 @@
         <v>2884426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2795631</v>
+        <v>2792922</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2965019</v>
+        <v>2961713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4333741077157011</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4200329785156918</v>
+        <v>0.4196259861352931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.445482913052064</v>
+        <v>0.4449862833304004</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>910142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>861355</v>
+        <v>859526</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>960002</v>
+        <v>962099</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2777749938654606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.26288533428562</v>
+        <v>0.2623271146453343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2929921981539662</v>
+        <v>0.2936324167260622</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>946</v>
@@ -2126,19 +2126,19 @@
         <v>964005</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>913027</v>
+        <v>914523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1014229</v>
+        <v>1017722</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2852763464838765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.27019059387323</v>
+        <v>0.2706332876351518</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3001390543936625</v>
+        <v>0.3011726056533737</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1848</v>
@@ -2147,19 +2147,19 @@
         <v>1874147</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1801847</v>
+        <v>1803947</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1950759</v>
+        <v>1951255</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2815835182638996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2707206751520511</v>
+        <v>0.2710362666490808</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2930942366392527</v>
+        <v>0.2931687159901833</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>662979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>619247</v>
+        <v>616455</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>712670</v>
+        <v>707071</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2023409201592923</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1889940846451402</v>
+        <v>0.1881420412491877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2175067660024533</v>
+        <v>0.2157977341265747</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>627</v>
@@ -2197,19 +2197,19 @@
         <v>652653</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>609226</v>
+        <v>611809</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>698533</v>
+        <v>698732</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1931384060743893</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1802873015334262</v>
+        <v>0.1810516188905461</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2067155779418379</v>
+        <v>0.2067745860644133</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1291</v>
@@ -2218,19 +2218,19 @@
         <v>1315632</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1254938</v>
+        <v>1244617</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1384391</v>
+        <v>1385024</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1976686962015373</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1885496403423734</v>
+        <v>0.1869990339607274</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2079995319999101</v>
+        <v>0.2080945912692034</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>177501</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150408</v>
+        <v>153312</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205566</v>
+        <v>208721</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05417328061014764</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04590442286594307</v>
+        <v>0.04679081189251444</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06273855917036146</v>
+        <v>0.06370173091160367</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>270</v>
@@ -2268,19 +2268,19 @@
         <v>289452</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>260889</v>
+        <v>257834</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>327698</v>
+        <v>325136</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08565712760140141</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07720429003700693</v>
+        <v>0.0763004372798973</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09697499408076937</v>
+        <v>0.09621698931526211</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>439</v>
@@ -2289,19 +2289,19 @@
         <v>466953</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>425998</v>
+        <v>430048</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>508506</v>
+        <v>511919</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07015799770350718</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06400460153029289</v>
+        <v>0.06461309676469754</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07640107523312124</v>
+        <v>0.07691388601937448</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>51583</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37093</v>
+        <v>36494</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>70612</v>
+        <v>69964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01574318938158427</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01132072771979557</v>
+        <v>0.01113787982928677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02155083125755779</v>
+        <v>0.02135302590942135</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -2339,19 +2339,19 @@
         <v>63000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47871</v>
+        <v>47275</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82864</v>
+        <v>84336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01864343920692101</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01416641100737658</v>
+        <v>0.0139900631853515</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02452183193248826</v>
+        <v>0.02495744599225062</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>91</v>
@@ -2360,19 +2360,19 @@
         <v>114583</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>92579</v>
+        <v>90717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>140892</v>
+        <v>137264</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01721568011535489</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01390957311646173</v>
+        <v>0.01362988017873741</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02116851560269581</v>
+        <v>0.02062334091001752</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>487361</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>452331</v>
+        <v>455164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>518747</v>
+        <v>522876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5027210663287713</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4665867431087924</v>
+        <v>0.4695092164909125</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5350955951776682</v>
+        <v>0.5393551176324427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>611</v>
@@ -2724,19 +2724,19 @@
         <v>653526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>615640</v>
+        <v>614910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>691545</v>
+        <v>689648</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4888892655989863</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4605473560334268</v>
+        <v>0.4600014799429329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5173303270887932</v>
+        <v>0.5159113638816987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1072</v>
@@ -2745,19 +2745,19 @@
         <v>1140888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1089997</v>
+        <v>1089876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1190970</v>
+        <v>1190432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4947036688997462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4726367272405469</v>
+        <v>0.4725843321070889</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5164198418997463</v>
+        <v>0.5161866611042343</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>230668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202252</v>
+        <v>202078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259972</v>
+        <v>258243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2379374554401567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2086259334860893</v>
+        <v>0.2084469369809158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2681647457853782</v>
+        <v>0.2663814372105103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -2795,19 +2795,19 @@
         <v>341128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307908</v>
+        <v>309514</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>373690</v>
+        <v>375811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2551910159271233</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2303398552998885</v>
+        <v>0.2315408497015375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2795494818501861</v>
+        <v>0.2811365782658189</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -2816,19 +2816,19 @@
         <v>571796</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>528133</v>
+        <v>530102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619736</v>
+        <v>615090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2479382249850695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2290054128994057</v>
+        <v>0.2298591784653516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2687255615535909</v>
+        <v>0.266710977674753</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>171862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>148403</v>
+        <v>148207</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>202032</v>
+        <v>199616</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1772784190668598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1530797591961538</v>
+        <v>0.1528779183997608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2083993309257976</v>
+        <v>0.2059075938548346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>205</v>
@@ -2866,19 +2866,19 @@
         <v>222602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>195768</v>
+        <v>194941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>251782</v>
+        <v>251046</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1665240594173099</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1464495916595335</v>
+        <v>0.1458312895821132</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1883527485786453</v>
+        <v>0.1878025398102452</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>360</v>
@@ -2887,19 +2887,19 @@
         <v>394464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>357678</v>
+        <v>361300</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>431016</v>
+        <v>434406</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1710448145572571</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1550937265380672</v>
+        <v>0.1566642033275195</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1868942665715422</v>
+        <v>0.1883639548697949</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>61005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47038</v>
+        <v>46674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76514</v>
+        <v>77360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06292804557905256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04852009448669119</v>
+        <v>0.04814468152580787</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07892504130113981</v>
+        <v>0.07979809474111994</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -2937,19 +2937,19 @@
         <v>98708</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80858</v>
+        <v>81566</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119803</v>
+        <v>120560</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07384105591768554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.060488025651493</v>
+        <v>0.06101799467787683</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08962196290556187</v>
+        <v>0.09018807528907333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>150</v>
@@ -2958,19 +2958,19 @@
         <v>159713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138231</v>
+        <v>135580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188770</v>
+        <v>183789</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06925360959932317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0599386250389333</v>
+        <v>0.05878929717523943</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08185301373630428</v>
+        <v>0.07969331088430355</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>18550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11110</v>
+        <v>11427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28798</v>
+        <v>29397</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01913501358515951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01146038033410442</v>
+        <v>0.01178764282971185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02970518928605632</v>
+        <v>0.03032378273385506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -3008,19 +3008,19 @@
         <v>20793</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12350</v>
+        <v>12883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32998</v>
+        <v>31141</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01555460313889501</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009238605259409579</v>
+        <v>0.009637255732601288</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02468529200530256</v>
+        <v>0.02329601221392316</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -3029,19 +3029,19 @@
         <v>39343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28168</v>
+        <v>27706</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54011</v>
+        <v>53802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01705968195860405</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01221400451014016</v>
+        <v>0.01201353943698121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02341974004988057</v>
+        <v>0.02332919503272284</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>1115786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1067713</v>
+        <v>1076048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1161540</v>
+        <v>1160924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5693450584199798</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5448151807205999</v>
+        <v>0.5490681525773745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5926917469850083</v>
+        <v>0.5923775074691997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>872</v>
@@ -3154,19 +3154,19 @@
         <v>928609</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>882689</v>
+        <v>886800</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>973084</v>
+        <v>977088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5286088384419722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.502469295465274</v>
+        <v>0.5048093445981023</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.553926172955426</v>
+        <v>0.5562055997541142</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1935</v>
@@ -3175,19 +3175,19 @@
         <v>2044395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1982548</v>
+        <v>1985414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2110604</v>
+        <v>2108793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5500898584992858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.533448539146766</v>
+        <v>0.5342198681889844</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5679048936437298</v>
+        <v>0.5674175417503043</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>483255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444981</v>
+        <v>440896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>524734</v>
+        <v>521105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2465876776235447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2270578962391483</v>
+        <v>0.2249731857334278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2677529534936122</v>
+        <v>0.2659010141585166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>441</v>
@@ -3225,19 +3225,19 @@
         <v>470135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>431285</v>
+        <v>433237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>511223</v>
+        <v>509271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2676232142844401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2455082329286791</v>
+        <v>0.2466193780261236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2910125252379343</v>
+        <v>0.2899015814325833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>893</v>
@@ -3246,19 +3246,19 @@
         <v>953390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>897879</v>
+        <v>898821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1007024</v>
+        <v>1009829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2565307568798748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2415943514469729</v>
+        <v>0.2418476716721512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.270962248796912</v>
+        <v>0.2717169002101537</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>259709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>228297</v>
+        <v>230015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>293090</v>
+        <v>291383</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1325198838435547</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1164918416190891</v>
+        <v>0.1173685345649574</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1495531330205134</v>
+        <v>0.1486819254978765</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>205</v>
@@ -3296,19 +3296,19 @@
         <v>222068</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>194178</v>
+        <v>193797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>252664</v>
+        <v>254585</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.126411908113434</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1105355404516353</v>
+        <v>0.1103186381023425</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.143828473904371</v>
+        <v>0.1449219594187284</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>450</v>
@@ -3317,19 +3317,19 @@
         <v>481777</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>440052</v>
+        <v>438583</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>524723</v>
+        <v>525672</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1296327653564267</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1184057654446812</v>
+        <v>0.1180104216607179</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1411885288912401</v>
+        <v>0.141443847593123</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>86273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66957</v>
+        <v>65944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107185</v>
+        <v>106195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04402215572194083</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03416560137025722</v>
+        <v>0.03364871923053609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05469261577332462</v>
+        <v>0.05418768015232611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -3367,19 +3367,19 @@
         <v>109741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91269</v>
+        <v>88876</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136587</v>
+        <v>133600</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06246989802163287</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05195469651206479</v>
+        <v>0.05059262156011425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07775180259240284</v>
+        <v>0.07605147868467643</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -3388,19 +3388,19 @@
         <v>196014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170226</v>
+        <v>169007</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228108</v>
+        <v>228177</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.052742036119724</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04580310253170319</v>
+        <v>0.04547503987735583</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06137755191094004</v>
+        <v>0.0613961380259097</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>14748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8266</v>
+        <v>8970</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23858</v>
+        <v>24434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007525224390979978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004218010115185687</v>
+        <v>0.004577035491167194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01217392806812429</v>
+        <v>0.01246756879773806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -3438,19 +3438,19 @@
         <v>26151</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16827</v>
+        <v>16018</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39662</v>
+        <v>38806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01488614113852086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009578745899879258</v>
+        <v>0.009118265369740952</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02257751570509155</v>
+        <v>0.0220903162067148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -3459,19 +3459,19 @@
         <v>40898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29275</v>
+        <v>29573</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56529</v>
+        <v>56479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01100458314468867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007877122010118406</v>
+        <v>0.007957141374916599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01521038248946941</v>
+        <v>0.01519680382631033</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>278998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>254923</v>
+        <v>254841</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>302684</v>
+        <v>303401</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5823555566307959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5321029417850927</v>
+        <v>0.5319319486549133</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6317958133477274</v>
+        <v>0.6332930719514031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>259</v>
@@ -3584,19 +3584,19 @@
         <v>285304</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>262523</v>
+        <v>264465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307200</v>
+        <v>307565</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6220778788348409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5724056191370155</v>
+        <v>0.5766399291987423</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6698186516933983</v>
+        <v>0.6706144397382166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>511</v>
@@ -3605,19 +3605,19 @@
         <v>564302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>533161</v>
+        <v>531388</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>594055</v>
+        <v>596440</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6017835000630309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5685737734166916</v>
+        <v>0.5666837997769386</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6335127433212968</v>
+        <v>0.6360566087205756</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>111467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92463</v>
+        <v>93088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130314</v>
+        <v>132726</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2326674437893827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1929987526789364</v>
+        <v>0.1943031789497731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2720069634844907</v>
+        <v>0.277040961604117</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -3655,19 +3655,19 @@
         <v>114661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96293</v>
+        <v>95816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136278</v>
+        <v>134755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2500070364667418</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2099584186222617</v>
+        <v>0.2089164964369977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2971407501318141</v>
+        <v>0.2938195145808993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -3676,19 +3676,19 @@
         <v>226128</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199693</v>
+        <v>200444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>256618</v>
+        <v>255460</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2411481319008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2129572015663486</v>
+        <v>0.2137580291571443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2736629497745213</v>
+        <v>0.2724280556017002</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>62949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48775</v>
+        <v>49659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81213</v>
+        <v>82684</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1313952488342485</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1018080571320214</v>
+        <v>0.1036535738141012</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1695165257341255</v>
+        <v>0.1725873817514793</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -3726,19 +3726,19 @@
         <v>32510</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21851</v>
+        <v>21335</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46569</v>
+        <v>44545</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07088476442981317</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04764293166077567</v>
+        <v>0.046518615478511</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1015399582349764</v>
+        <v>0.09712579374551138</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -3747,19 +3747,19 @@
         <v>95459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>76992</v>
+        <v>77337</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>115449</v>
+        <v>114824</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1017999431512691</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08210582701576126</v>
+        <v>0.08247333138869398</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1231176049038118</v>
+        <v>0.122451023254444</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>21492</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12645</v>
+        <v>12931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33642</v>
+        <v>35584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04486113443792011</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02639378689603639</v>
+        <v>0.02699058249120887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07022134402822323</v>
+        <v>0.07427440409018017</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -3797,19 +3797,19 @@
         <v>22080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13650</v>
+        <v>13791</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34433</v>
+        <v>34736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04814383921478704</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02976163741574253</v>
+        <v>0.03006910982802781</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07507805940615454</v>
+        <v>0.07573811934752475</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -3818,19 +3818,19 @@
         <v>43573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31173</v>
+        <v>30722</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59605</v>
+        <v>59806</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04646668515023985</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03324319719911047</v>
+        <v>0.03276221249047358</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06356375762653411</v>
+        <v>0.06377822526424559</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>4178</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12938</v>
+        <v>14278</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008720616307652904</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001960221535731737</v>
+        <v>0.001998803198555934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02700530669164594</v>
+        <v>0.02980175315645756</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -3868,19 +3868,19 @@
         <v>4076</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1114</v>
+        <v>998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9258</v>
+        <v>9890</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008886481053817138</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002429528112881653</v>
+        <v>0.002176267734697277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02018644399658783</v>
+        <v>0.02156506058049451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -3889,19 +3889,19 @@
         <v>8254</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3202</v>
+        <v>3268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16642</v>
+        <v>18475</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008801739734660216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003414307198554287</v>
+        <v>0.003485419161428424</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01774787380964371</v>
+        <v>0.01970263964001654</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>1882145</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1819249</v>
+        <v>1823411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1940902</v>
+        <v>1945188</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5522235394199054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5337698001140495</v>
+        <v>0.5349907609940575</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5694630025122259</v>
+        <v>0.5707202755767484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1742</v>
@@ -4014,19 +4014,19 @@
         <v>1867439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1804055</v>
+        <v>1804770</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1928443</v>
+        <v>1927740</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5257295170461262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5078853370684463</v>
+        <v>0.5080865086972266</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5429035713770516</v>
+        <v>0.5427056330710905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3518</v>
@@ -4035,19 +4035,19 @@
         <v>3749584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3665270</v>
+        <v>3664431</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3842781</v>
+        <v>3835919</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5387028702131527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5265893831707599</v>
+        <v>0.5264689148624162</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5520925239792356</v>
+        <v>0.5511066352878714</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>825391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>770956</v>
+        <v>776094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>879159</v>
+        <v>875463</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2421705501224073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2261992540950203</v>
+        <v>0.227706758746523</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2579462024518161</v>
+        <v>0.2568619011346214</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>861</v>
@@ -4085,19 +4085,19 @@
         <v>925924</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>876896</v>
+        <v>872593</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>977632</v>
+        <v>980896</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2606700832666851</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2468674556219566</v>
+        <v>0.2456560901044892</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2752271309930032</v>
+        <v>0.2761461095577361</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1633</v>
@@ -4106,19 +4106,19 @@
         <v>1751314</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1670147</v>
+        <v>1679012</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1824107</v>
+        <v>1828539</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2516113992541227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2399500355566189</v>
+        <v>0.2412236961117311</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2620694967623611</v>
+        <v>0.2627061930170958</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>494520</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>453509</v>
+        <v>449062</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>539409</v>
+        <v>538648</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1450927833022764</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1330601908094006</v>
+        <v>0.1317552595902867</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1582633344175792</v>
+        <v>0.1580399736205319</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>438</v>
@@ -4156,19 +4156,19 @@
         <v>477180</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>437631</v>
+        <v>435928</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>522341</v>
+        <v>524902</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1343378665709625</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1232036834474657</v>
+        <v>0.1227243566213505</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1470517120069935</v>
+        <v>0.1477726261373489</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>895</v>
@@ -4177,19 +4177,19 @@
         <v>971700</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>909738</v>
+        <v>915322</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1030422</v>
+        <v>1031353</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1396042368890983</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1307020713284601</v>
+        <v>0.131504291175928</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.148040743227104</v>
+        <v>0.1481745476423628</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>168771</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>142799</v>
+        <v>143412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>199213</v>
+        <v>198230</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04951762023109255</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04189736213610256</v>
+        <v>0.04207733588985055</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05844943857615849</v>
+        <v>0.05816089714588138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>207</v>
@@ -4227,19 +4227,19 @@
         <v>230529</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>197610</v>
+        <v>201089</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>263481</v>
+        <v>260701</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06489948082499782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05563200378813566</v>
+        <v>0.05661155935882577</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07417640963110876</v>
+        <v>0.07339373694086471</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>359</v>
@@ -4248,19 +4248,19 @@
         <v>399300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>358847</v>
+        <v>361046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>444269</v>
+        <v>440579</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05736743049925355</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05155552192926682</v>
+        <v>0.05187144367661922</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06382816370846013</v>
+        <v>0.06329793010479728</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>37476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26545</v>
+        <v>26239</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53369</v>
+        <v>53330</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0109955069243183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007788380047825002</v>
+        <v>0.007698640617156217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01565849049067797</v>
+        <v>0.0156471680892034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -4298,19 +4298,19 @@
         <v>51019</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38314</v>
+        <v>37787</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67449</v>
+        <v>67614</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01436305229122829</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01078626211957642</v>
+        <v>0.01063801064669728</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01898845844731255</v>
+        <v>0.01903510485593676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -4319,19 +4319,19 @@
         <v>88495</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>71569</v>
+        <v>69410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110815</v>
+        <v>111638</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01271406314437286</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01028235963989427</v>
+        <v>0.0099721419381205</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01592075565370855</v>
+        <v>0.01603896478720308</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>298062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>270412</v>
+        <v>271755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>322841</v>
+        <v>323157</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3951254239275664</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3584719622415647</v>
+        <v>0.3602520950973639</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4279741571320733</v>
+        <v>0.4283925725034918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>295</v>
@@ -4683,19 +4683,19 @@
         <v>327724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>299202</v>
+        <v>298637</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>360399</v>
+        <v>361899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3299046338842759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3011927208000673</v>
+        <v>0.3006243396718318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3627977216017145</v>
+        <v>0.3643075692360411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>593</v>
@@ -4704,19 +4704,19 @@
         <v>625785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>585806</v>
+        <v>587201</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>666546</v>
+        <v>668174</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3580548214707344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3351801403922458</v>
+        <v>0.3359781646808823</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3813768543699614</v>
+        <v>0.3823085352629845</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>265421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242899</v>
+        <v>241697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291148</v>
+        <v>293463</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3518548363075345</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3219996306514945</v>
+        <v>0.3204051744651664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3859602853397978</v>
+        <v>0.3890290838500518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>349</v>
@@ -4754,19 +4754,19 @@
         <v>382845</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>352387</v>
+        <v>351462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>415111</v>
+        <v>415499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3853923666968408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3547322389403791</v>
+        <v>0.35380054429126</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4178738776012226</v>
+        <v>0.418264059854914</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>618</v>
@@ -4775,19 +4775,19 @@
         <v>648265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>605829</v>
+        <v>602559</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>689678</v>
+        <v>688728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3709171085618369</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3466366043162544</v>
+        <v>0.3447657343804675</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3946121374696583</v>
+        <v>0.3940684492920518</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>142668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121183</v>
+        <v>124363</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163845</v>
+        <v>165240</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.189127406527881</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1606463973319181</v>
+        <v>0.1648616845523286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2172012828704462</v>
+        <v>0.2190505100618929</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>170</v>
@@ -4825,19 +4825,19 @@
         <v>191279</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>167504</v>
+        <v>167422</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>219364</v>
+        <v>217711</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1925516335035991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1686190611587449</v>
+        <v>0.1685363265241285</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2208239376447857</v>
+        <v>0.2191597389678239</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>315</v>
@@ -4846,19 +4846,19 @@
         <v>333946</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>300132</v>
+        <v>302977</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>372878</v>
+        <v>367699</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1910736901723224</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1717260296916139</v>
+        <v>0.1733541867712167</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2133490925771456</v>
+        <v>0.2103859749951445</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>43324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31143</v>
+        <v>31567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55295</v>
+        <v>57084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05743233628248808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04128459827974381</v>
+        <v>0.04184718570227512</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07330230161522448</v>
+        <v>0.07567334091027163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -4896,19 +4896,19 @@
         <v>75539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58376</v>
+        <v>58944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95996</v>
+        <v>94647</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07604171110520358</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0587645654693238</v>
+        <v>0.05933599330658144</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09663465199349314</v>
+        <v>0.09527670526504267</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -4917,19 +4917,19 @@
         <v>118863</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97236</v>
+        <v>99313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141974</v>
+        <v>142073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06800964967542868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05563514831419616</v>
+        <v>0.05682380125939936</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0812331626426563</v>
+        <v>0.08128985358503281</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>4873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1951</v>
+        <v>1816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10906</v>
+        <v>11063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006459996954529996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00258580917330759</v>
+        <v>0.002406914108433628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01445716356937058</v>
+        <v>0.01466581025903311</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -4967,19 +4967,19 @@
         <v>16003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8516</v>
+        <v>9580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26040</v>
+        <v>26484</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01610965481008069</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008572600248941869</v>
+        <v>0.009643575669140952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02621316796715101</v>
+        <v>0.0266606039284931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -4988,19 +4988,19 @@
         <v>20876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13315</v>
+        <v>12958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33655</v>
+        <v>32063</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01194473011967762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007618157855188815</v>
+        <v>0.007414234537036166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01925648256301234</v>
+        <v>0.01834529363306144</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>879948</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>832043</v>
+        <v>833648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>923979</v>
+        <v>923652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4247373915701118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4016143596725449</v>
+        <v>0.4023891513471078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4459908855783604</v>
+        <v>0.4458327134495115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>808</v>
@@ -5113,19 +5113,19 @@
         <v>828161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>782539</v>
+        <v>781617</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>874436</v>
+        <v>872328</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.417255784421091</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3942695809803725</v>
+        <v>0.3938053766852797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4405705745179083</v>
+        <v>0.4395085005281411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1632</v>
@@ -5134,19 +5134,19 @@
         <v>1708109</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1642249</v>
+        <v>1641026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1771239</v>
+        <v>1768217</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4210767837274164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4048413037399761</v>
+        <v>0.4045398104782863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4366394979447313</v>
+        <v>0.4358943554115762</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>779367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>736714</v>
+        <v>735298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822526</v>
+        <v>822516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3761887460222764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3556004758890539</v>
+        <v>0.3549171910362409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3970208811897231</v>
+        <v>0.3970160877350002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>759</v>
@@ -5184,19 +5184,19 @@
         <v>793632</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>748257</v>
+        <v>749377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>842321</v>
+        <v>838569</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3998587315987749</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.376997145798759</v>
+        <v>0.3775617474896943</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4243896980799254</v>
+        <v>0.4224995894726525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1502</v>
@@ -5205,19 +5205,19 @@
         <v>1572999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1510534</v>
+        <v>1509372</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1633617</v>
+        <v>1633772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3877700190177661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3723714270622476</v>
+        <v>0.3720848902617119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4027134179411543</v>
+        <v>0.4027515838472239</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>302568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>269854</v>
+        <v>269938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>334842</v>
+        <v>336469</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1460450495380271</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1302546363516102</v>
+        <v>0.1302949392528924</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1616232361319911</v>
+        <v>0.1624084889936077</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>258</v>
@@ -5255,19 +5255,19 @@
         <v>275065</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245614</v>
+        <v>245335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>305361</v>
+        <v>312044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1385873216042188</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1237485700252017</v>
+        <v>0.1236083448251416</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1538511801779849</v>
+        <v>0.1572184522495474</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -5276,19 +5276,19 @@
         <v>577634</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>534004</v>
+        <v>530511</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>627296</v>
+        <v>622186</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1423961253404019</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1316408134131103</v>
+        <v>0.1307797284248159</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1546387354167009</v>
+        <v>0.1533790143954779</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>91447</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72731</v>
+        <v>73272</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113156</v>
+        <v>114191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04414016883171033</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03510596969953124</v>
+        <v>0.03536715817271725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05461848214820105</v>
+        <v>0.05511845892819025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -5326,19 +5326,19 @@
         <v>77145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61539</v>
+        <v>60682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96921</v>
+        <v>97317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03886815800394158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03100558178801729</v>
+        <v>0.03057362965230256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0488320279947238</v>
+        <v>0.04903182275839684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -5347,19 +5347,19 @@
         <v>168592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145765</v>
+        <v>145722</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>200393</v>
+        <v>199171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04156067437303227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03593355489446137</v>
+        <v>0.03592282506379806</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04940021260190761</v>
+        <v>0.04909881407524943</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>18415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11374</v>
+        <v>10796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30512</v>
+        <v>30291</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008888644037874408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005490241783281828</v>
+        <v>0.005211191414078632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01472772635669892</v>
+        <v>0.01462096873184338</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -5397,19 +5397,19 @@
         <v>10777</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5739</v>
+        <v>5781</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18672</v>
+        <v>18357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005430004371973712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002891340540460629</v>
+        <v>0.002912423193642468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009407504755261238</v>
+        <v>0.009249081958704011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -5418,19 +5418,19 @@
         <v>29192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19674</v>
+        <v>19728</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41214</v>
+        <v>42828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007196397541383276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004849912717524186</v>
+        <v>0.004863243583499305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0101598717825052</v>
+        <v>0.01055774134695945</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>266861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>243608</v>
+        <v>242043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>292545</v>
+        <v>291914</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4887370869035689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4461516392683062</v>
+        <v>0.4432857394255347</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.535775954846661</v>
+        <v>0.5346213594405158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -5543,19 +5543,19 @@
         <v>271399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>248901</v>
+        <v>247560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>294925</v>
+        <v>294313</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4950681628954408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4540275051759012</v>
+        <v>0.4515815509273713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5379826415593238</v>
+        <v>0.5368657243888048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>511</v>
@@ -5564,19 +5564,19 @@
         <v>538260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>504283</v>
+        <v>503565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>574093</v>
+        <v>570119</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4919089454906894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4608581103602984</v>
+        <v>0.4602015999176504</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5246564045454778</v>
+        <v>0.5210247077604607</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>194284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172101</v>
+        <v>169303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>218081</v>
+        <v>217054</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3558183809725719</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3151903393116658</v>
+        <v>0.3100677100730879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3994005759878392</v>
+        <v>0.3975196721642629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>176</v>
@@ -5614,19 +5614,19 @@
         <v>182342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159612</v>
+        <v>161789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205566</v>
+        <v>206775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3326158733829834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2911526750167188</v>
+        <v>0.2951248862666109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3749789042935024</v>
+        <v>0.3771851955557492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -5635,19 +5635,19 @@
         <v>376626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>337526</v>
+        <v>349430</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404119</v>
+        <v>410865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3441939630955396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3084603402410553</v>
+        <v>0.3193394617571439</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3693189421208351</v>
+        <v>0.3754841964706865</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>65109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48989</v>
+        <v>49862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>82413</v>
+        <v>83489</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.119242172807552</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.089719707255649</v>
+        <v>0.09131961961566036</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1509335536821716</v>
+        <v>0.1529048505038296</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -5685,19 +5685,19 @@
         <v>63638</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49604</v>
+        <v>50162</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80404</v>
+        <v>81665</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1160844420427493</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09048338622728516</v>
+        <v>0.09150131183297493</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1466675937042237</v>
+        <v>0.1489685638359722</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -5706,19 +5706,19 @@
         <v>128747</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>106381</v>
+        <v>109637</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>152981</v>
+        <v>153270</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.11766015492386</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09722055847504386</v>
+        <v>0.1001955155573994</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1398077456713367</v>
+        <v>0.1400718035107115</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>16910</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10088</v>
+        <v>8873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29593</v>
+        <v>26726</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03096920353549166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01847613413965656</v>
+        <v>0.01625099437091505</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05419685587718465</v>
+        <v>0.04894602240374611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -5756,19 +5756,19 @@
         <v>27097</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18356</v>
+        <v>17296</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40806</v>
+        <v>39032</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04942814885790297</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03348466772109922</v>
+        <v>0.03155016395144875</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07443601716338659</v>
+        <v>0.07120018911385104</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5777,19 +5777,19 @@
         <v>44007</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31026</v>
+        <v>31380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58681</v>
+        <v>58054</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04021710457241599</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02835460962579844</v>
+        <v>0.02867812472979635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05362765819863385</v>
+        <v>0.0530546431119374</v>
       </c>
     </row>
     <row r="20">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9658</v>
+        <v>10017</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005233155780815576</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01768706917758477</v>
+        <v>0.01834528456591175</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -5827,19 +5827,19 @@
         <v>3730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10619</v>
+        <v>9959</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006803372820923555</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001893608661332597</v>
+        <v>0.001904221920119082</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01937056168373119</v>
+        <v>0.01816568115608854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -5848,19 +5848,19 @@
         <v>6587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2166</v>
+        <v>2209</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15051</v>
+        <v>14594</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006019831917494977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0019791347775092</v>
+        <v>0.002018914481733804</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01375519264416718</v>
+        <v>0.01333771147830384</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>1444870</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1386398</v>
+        <v>1387823</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1503745</v>
+        <v>1504184</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4284761429017478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4111363954316705</v>
+        <v>0.4115587344372773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4459354391861705</v>
+        <v>0.4460657956128871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1366</v>
@@ -5973,19 +5973,19 @@
         <v>1427284</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1370645</v>
+        <v>1369200</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1483111</v>
+        <v>1486325</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.404745356005745</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3886838084009689</v>
+        <v>0.3882738339609366</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4205766738256462</v>
+        <v>0.421488056386208</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2736</v>
@@ -5994,19 +5994,19 @@
         <v>2872154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2791366</v>
+        <v>2784853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2953145</v>
+        <v>2952476</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4163454173777421</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4046344228134365</v>
+        <v>0.4036902563088739</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.428085728730558</v>
+        <v>0.4279888248881564</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>1239072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1187194</v>
+        <v>1180601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1298268</v>
+        <v>1294004</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3674467922900052</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.35206223563313</v>
+        <v>0.3501072471448377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3850013978588536</v>
+        <v>0.3837369269543919</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1284</v>
@@ -6044,19 +6044,19 @@
         <v>1358819</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1305241</v>
+        <v>1300297</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1417857</v>
+        <v>1420407</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3853300300548275</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3701365242016104</v>
+        <v>0.368734553025355</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4020720343597371</v>
+        <v>0.4027951018945325</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2477</v>
@@ -6065,19 +6065,19 @@
         <v>2597891</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2520141</v>
+        <v>2521863</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2677604</v>
+        <v>2681233</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3765883622580088</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3653177549957255</v>
+        <v>0.365567497915157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3881435107896667</v>
+        <v>0.3886696300299296</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>510345</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>470006</v>
+        <v>466929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>557531</v>
+        <v>551099</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1513426481088345</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1393801955866364</v>
+        <v>0.1384678056761967</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1653358128427085</v>
+        <v>0.1634283162656369</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>487</v>
@@ -6115,19 +6115,19 @@
         <v>529982</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>485456</v>
+        <v>489690</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>574104</v>
+        <v>576560</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1502909369563261</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1376643869862433</v>
+        <v>0.1388649073999516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1628029121836012</v>
+        <v>0.1634993936284559</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>970</v>
@@ -6136,19 +6136,19 @@
         <v>1040327</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>979495</v>
+        <v>982506</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1104464</v>
+        <v>1100661</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1508050334322743</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.141986901350774</v>
+        <v>0.1424233558454689</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1601023160868581</v>
+        <v>0.1595510257726561</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>151681</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127688</v>
+        <v>127941</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176789</v>
+        <v>177418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04498097064100469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0378657752039761</v>
+        <v>0.03794091208100243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05242687100812157</v>
+        <v>0.05261321799217075</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>156</v>
@@ -6186,19 +6186,19 @@
         <v>179781</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>152289</v>
+        <v>153181</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>209496</v>
+        <v>208734</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05098168568101848</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04318568185744356</v>
+        <v>0.04343877440234598</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05940834170884091</v>
+        <v>0.05919234776065118</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>297</v>
@@ -6207,19 +6207,19 @@
         <v>331462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>297233</v>
+        <v>295313</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>374258</v>
+        <v>372458</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04804842168749491</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04308670567205417</v>
+        <v>0.04280828836963726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05425219786807915</v>
+        <v>0.05399130009739017</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>26145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16981</v>
+        <v>16990</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38121</v>
+        <v>38779</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007753446058407782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005035768184050394</v>
+        <v>0.005038524108872652</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0113046861577706</v>
+        <v>0.01149987370700539</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -6257,19 +6257,19 @@
         <v>30510</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20598</v>
+        <v>20185</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44243</v>
+        <v>44000</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008651991302082994</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005841221846305341</v>
+        <v>0.005723914249858054</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01254618388904922</v>
+        <v>0.01247744392831972</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -6278,19 +6278,19 @@
         <v>56656</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43656</v>
+        <v>42833</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74929</v>
+        <v>75875</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008212765244479982</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006328314938762115</v>
+        <v>0.006208977664632138</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01086169892663042</v>
+        <v>0.01099876881349892</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>253176</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>231665</v>
+        <v>231291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277121</v>
+        <v>278581</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4382364346794119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4010012182820413</v>
+        <v>0.40035437218725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4796831383013288</v>
+        <v>0.4822101490188733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>557</v>
@@ -6642,19 +6642,19 @@
         <v>320596</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>299247</v>
+        <v>300503</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>342982</v>
+        <v>342329</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3917290251312325</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3656431754419248</v>
+        <v>0.3671775590912422</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4190816663322585</v>
+        <v>0.4182841258778553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>856</v>
@@ -6663,19 +6663,19 @@
         <v>573772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>540152</v>
+        <v>542759</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>605383</v>
+        <v>608568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4109737119580515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3868926420363307</v>
+        <v>0.3887602055172917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4336160028946834</v>
+        <v>0.4358967381735085</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>158780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139299</v>
+        <v>137470</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179151</v>
+        <v>177954</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2748413754836391</v>
+        <v>0.2748413754836392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2411200538897217</v>
+        <v>0.2379543168519777</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3101030342837773</v>
+        <v>0.3080302731301319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>470</v>
@@ -6713,19 +6713,19 @@
         <v>269841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247194</v>
+        <v>249933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288915</v>
+        <v>292081</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.329712084457226</v>
+        <v>0.3297120844572261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3020412138422505</v>
+        <v>0.3053877606061687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3530191016814709</v>
+        <v>0.3568871445289063</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>667</v>
@@ -6734,19 +6734,19 @@
         <v>428621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>398553</v>
+        <v>401540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455725</v>
+        <v>459121</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3070066785784428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2854705469930374</v>
+        <v>0.2876099220926046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3264204815793746</v>
+        <v>0.3288528316782924</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>94492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78299</v>
+        <v>76209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116807</v>
+        <v>113879</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1635607240913626</v>
+        <v>0.1635607240913625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1355321206598736</v>
+        <v>0.1319149627316028</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2021883003450952</v>
+        <v>0.1971191706898658</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>212</v>
@@ -6784,19 +6784,19 @@
         <v>120215</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105854</v>
+        <v>106304</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136745</v>
+        <v>136125</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1468876969771919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1293406926157684</v>
+        <v>0.1298909910072811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1670853004383163</v>
+        <v>0.1663275872251614</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>317</v>
@@ -6805,19 +6805,19 @@
         <v>214706</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191913</v>
+        <v>192997</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240201</v>
+        <v>242582</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1537869671877779</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1374605631472573</v>
+        <v>0.1382375651386481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1720481557857067</v>
+        <v>0.173753230504228</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>52079</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40160</v>
+        <v>40894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65934</v>
+        <v>65587</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09014664625476722</v>
+        <v>0.0901466462547672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06951525549083441</v>
+        <v>0.07078645633205186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1141288560965075</v>
+        <v>0.1135288162335635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>137</v>
@@ -6855,19 +6855,19 @@
         <v>79986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67449</v>
+        <v>68333</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93183</v>
+        <v>93780</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09773269252577131</v>
+        <v>0.09773269252577133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08241390115898861</v>
+        <v>0.08349421869505236</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.113858460971451</v>
+        <v>0.1145878094258549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -6876,19 +6876,19 @@
         <v>132065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114242</v>
+        <v>113924</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149395</v>
+        <v>151917</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09459359950473362</v>
+        <v>0.09459359950473359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08182790754563904</v>
+        <v>0.0816002535672091</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1070064500790079</v>
+        <v>0.1088127858889953</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>19189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12873</v>
+        <v>12420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29162</v>
+        <v>27254</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03321481949081928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02228238705466579</v>
+        <v>0.02149885801990339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05047883719717961</v>
+        <v>0.04717591121362166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -6926,19 +6926,19 @@
         <v>27776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20840</v>
+        <v>21016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36828</v>
+        <v>36961</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03393850090857818</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02546365515207728</v>
+        <v>0.02567836124129401</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04499913274257351</v>
+        <v>0.04516160672499135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>71</v>
@@ -6947,19 +6947,19 @@
         <v>46964</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36542</v>
+        <v>37164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59256</v>
+        <v>59437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03363904277099408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02617368933008466</v>
+        <v>0.02661965010751759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04244303094763741</v>
+        <v>0.04257255715375617</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>1179598</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1126294</v>
+        <v>1127684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1232287</v>
+        <v>1234424</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5292768720985898</v>
+        <v>0.5292768720985896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5053596630912811</v>
+        <v>0.5059834021296024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5529181039885107</v>
+        <v>0.5538771928655444</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1398</v>
@@ -7072,19 +7072,19 @@
         <v>1075052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1030231</v>
+        <v>1033289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1115723</v>
+        <v>1120214</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.49522746038954</v>
+        <v>0.4952274603895399</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4745805312535025</v>
+        <v>0.4759894865669068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.513962933573652</v>
+        <v>0.5160315652259899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2373</v>
@@ -7093,19 +7093,19 @@
         <v>2254649</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2180407</v>
+        <v>2188647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2321979</v>
+        <v>2330052</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5124761191593982</v>
+        <v>0.5124761191593983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4956009196426773</v>
+        <v>0.4974738332267145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5277799563908028</v>
+        <v>0.5296148367548659</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>742879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>696621</v>
+        <v>695734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>794058</v>
+        <v>793043</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3333245281097108</v>
+        <v>0.3333245281097107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3125688846450964</v>
+        <v>0.3121706777905492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3562881058558294</v>
+        <v>0.3558326338943135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1077</v>
@@ -7143,19 +7143,19 @@
         <v>761193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>721389</v>
+        <v>718606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>800324</v>
+        <v>801866</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.350647100370117</v>
+        <v>0.3506471003701169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3323112500848311</v>
+        <v>0.3310291049776659</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3686727690632423</v>
+        <v>0.3693831266083467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1803</v>
@@ -7164,19 +7164,19 @@
         <v>1504073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1443292</v>
+        <v>1438628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1573956</v>
+        <v>1572297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3418718786279878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3280565481223958</v>
+        <v>0.3269964469398826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3577561330230792</v>
+        <v>0.3573790329783225</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>169813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>144412</v>
+        <v>141542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>200759</v>
+        <v>200984</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07619389425212153</v>
+        <v>0.07619389425212152</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06479668766205207</v>
+        <v>0.06350889404483258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09007923537007481</v>
+        <v>0.09017983395506489</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>240</v>
@@ -7214,19 +7214,19 @@
         <v>175975</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>155129</v>
+        <v>155590</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>198712</v>
+        <v>201582</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08106350180261257</v>
+        <v>0.08106350180261256</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07146083594779246</v>
+        <v>0.0716732785867608</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09153774886517015</v>
+        <v>0.09285989137092827</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>396</v>
@@ -7235,19 +7235,19 @@
         <v>345788</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>311689</v>
+        <v>309463</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>385431</v>
+        <v>382799</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0785966691977126</v>
+        <v>0.07859666919771263</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07084622633201669</v>
+        <v>0.07034021198569977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08760741005274544</v>
+        <v>0.08700928634671586</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>111258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90293</v>
+        <v>91049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135498</v>
+        <v>133235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04992044703045156</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04051359303261316</v>
+        <v>0.04085308338915657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06079696474871091</v>
+        <v>0.05978157749228342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -7285,19 +7285,19 @@
         <v>118729</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98938</v>
+        <v>101614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140249</v>
+        <v>139461</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0546928652584651</v>
+        <v>0.05469286525846509</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0455763072065548</v>
+        <v>0.04680913441170991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06460635191012104</v>
+        <v>0.06424343973712382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>265</v>
@@ -7306,19 +7306,19 @@
         <v>229986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201821</v>
+        <v>202476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>260927</v>
+        <v>261556</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05227526655733455</v>
+        <v>0.05227526655733457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04587332773041532</v>
+        <v>0.04602220537182398</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05930807972691623</v>
+        <v>0.05945108050249314</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>25149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16750</v>
+        <v>16717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37506</v>
+        <v>37187</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01128425850912631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007515609879441405</v>
+        <v>0.007500972455495732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01682862077506476</v>
+        <v>0.01668553829770215</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -7356,19 +7356,19 @@
         <v>39876</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28899</v>
+        <v>28416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55985</v>
+        <v>55523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01836907217926555</v>
+        <v>0.01836907217926554</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01331229783350787</v>
+        <v>0.01308999359457944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0257898093292786</v>
+        <v>0.02557682661297452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -7377,19 +7377,19 @@
         <v>65025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50605</v>
+        <v>51131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85252</v>
+        <v>83721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0147800664575667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01150234701707877</v>
+        <v>0.01162204856948407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01937753481976582</v>
+        <v>0.01902946803147694</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>420744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>392253</v>
+        <v>389713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449790</v>
+        <v>446146</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5912761019560263</v>
+        <v>0.5912761019560261</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.551237391045142</v>
+        <v>0.5476679243764596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6320943462317539</v>
+        <v>0.6269729535463077</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>576</v>
@@ -7502,19 +7502,19 @@
         <v>435131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>410859</v>
+        <v>411545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>458100</v>
+        <v>457233</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5929003940536199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5598284866705993</v>
+        <v>0.5607626514282212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6241977160953341</v>
+        <v>0.6230164041776628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>968</v>
@@ -7523,19 +7523,19 @@
         <v>855875</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>817342</v>
+        <v>820903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>889925</v>
+        <v>893485</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5921007856727224</v>
+        <v>0.5921007856727223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5654435145030039</v>
+        <v>0.5679066531462127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6156568587638374</v>
+        <v>0.6181193776827583</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>198529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172024</v>
+        <v>175556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222611</v>
+        <v>223286</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2789940235709287</v>
+        <v>0.2789940235709286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2417467101442674</v>
+        <v>0.2467100758958247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3128370022180747</v>
+        <v>0.3137859258683437</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>294</v>
@@ -7573,19 +7573,19 @@
         <v>198062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177086</v>
+        <v>177674</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219790</v>
+        <v>219628</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2698748018195815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2412942251019298</v>
+        <v>0.2420946761028962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2994816555054518</v>
+        <v>0.2992608349917372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>498</v>
@@ -7594,19 +7594,19 @@
         <v>396590</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365967</v>
+        <v>366494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428991</v>
+        <v>430398</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2743640227857142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2531787725857761</v>
+        <v>0.2535434553700936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2967789903511456</v>
+        <v>0.2977528335635851</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>48685</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36383</v>
+        <v>36687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64934</v>
+        <v>65797</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06841755341260018</v>
+        <v>0.06841755341260017</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05112911591183134</v>
+        <v>0.05155710477968603</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09125194840224136</v>
+        <v>0.09246576056326727</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -7644,19 +7644,19 @@
         <v>50233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38924</v>
+        <v>37702</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64216</v>
+        <v>64162</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06844594904842116</v>
+        <v>0.06844594904842115</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05303716456138547</v>
+        <v>0.05137179272807881</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08749879796105454</v>
+        <v>0.08742569933955557</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>111</v>
@@ -7665,19 +7665,19 @@
         <v>98918</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82392</v>
+        <v>80230</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>119360</v>
+        <v>117312</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06843197041217894</v>
+        <v>0.06843197041217895</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05699957480312087</v>
+        <v>0.05550336672624741</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08257380371109987</v>
+        <v>0.08115698544669316</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>31037</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20383</v>
+        <v>20071</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44092</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04361706774464155</v>
+        <v>0.04361706774464154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02864475132895513</v>
+        <v>0.02820531974197416</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06196296963084767</v>
+        <v>0.06338568183298648</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -7715,19 +7715,19 @@
         <v>40341</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29992</v>
+        <v>30988</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50619</v>
+        <v>51514</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05496769085754621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04086652063908851</v>
+        <v>0.04222395833866965</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06897183539016527</v>
+        <v>0.07019248067846216</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -7736,19 +7736,19 @@
         <v>71378</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57426</v>
+        <v>56516</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88386</v>
+        <v>90421</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04937999306419065</v>
+        <v>0.04937999306419066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03972802055699239</v>
+        <v>0.03909790662482704</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06114578391781692</v>
+        <v>0.06255421812772863</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>12592</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5706</v>
+        <v>5710</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27719</v>
+        <v>27631</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01769525331580336</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008018615910140834</v>
+        <v>0.008023728907984687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03895431455387331</v>
+        <v>0.03883068932602091</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -7786,19 +7786,19 @@
         <v>10136</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5834</v>
+        <v>5962</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17803</v>
+        <v>18163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01381116422083106</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007949698731442235</v>
+        <v>0.008123110713498301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02425826714548748</v>
+        <v>0.02474915455741534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -7807,19 +7807,19 @@
         <v>22728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13977</v>
+        <v>13613</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38682</v>
+        <v>37633</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0157232280651938</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009669260359575287</v>
+        <v>0.009417836781116113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02676065042043643</v>
+        <v>0.02603489267155617</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>1853518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1787694</v>
+        <v>1787929</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1916311</v>
+        <v>1918735</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5268670858485269</v>
+        <v>0.526867085848527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5081562199633259</v>
+        <v>0.5082230411537874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5447161154162528</v>
+        <v>0.545405085500772</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2531</v>
@@ -7932,19 +7932,19 @@
         <v>1830778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1778007</v>
+        <v>1776422</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1889885</v>
+        <v>1887568</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4917298518961004</v>
+        <v>0.4917298518961005</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4775559796510887</v>
+        <v>0.4771303122799114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.507605350518687</v>
+        <v>0.5069831404407706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4197</v>
@@ -7953,19 +7953,19 @@
         <v>3684296</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3604080</v>
+        <v>3598586</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3770688</v>
+        <v>3773256</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5088007572144271</v>
+        <v>0.508800757214427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4977229250743239</v>
+        <v>0.4969642003741346</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.52073141178828</v>
+        <v>0.5210860395731244</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>1100188</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1044422</v>
+        <v>1041699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1162325</v>
+        <v>1166616</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3127311481562338</v>
+        <v>0.3127311481562339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2968793572641378</v>
+        <v>0.2961054073874929</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3303935960963333</v>
+        <v>0.3316135459017863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1841</v>
@@ -8003,19 +8003,19 @@
         <v>1229095</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1173818</v>
+        <v>1176022</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1281666</v>
+        <v>1279220</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3301234360314805</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3152766308532406</v>
+        <v>0.3158684582157892</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3442435963158274</v>
+        <v>0.3435865517432014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2968</v>
@@ -8024,19 +8024,19 @@
         <v>2329283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2249904</v>
+        <v>2253623</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2410645</v>
+        <v>2403554</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3216736502575234</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3107113797552677</v>
+        <v>0.3112250060276937</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3329097126071004</v>
+        <v>0.3319304154552383</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>312990</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>277049</v>
+        <v>278739</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>354317</v>
+        <v>352955</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08896809364209986</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07875188987748639</v>
+        <v>0.07923211817239877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1007155383804303</v>
+        <v>0.1003283468034132</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>515</v>
@@ -8074,19 +8074,19 @@
         <v>346422</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>318122</v>
+        <v>320085</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>376733</v>
+        <v>382117</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09304568289928827</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08544463750118793</v>
+        <v>0.08597172813522455</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1011869758186286</v>
+        <v>0.1026330966778685</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>824</v>
@@ -8095,19 +8095,19 @@
         <v>659412</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>618114</v>
+        <v>611682</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>712151</v>
+        <v>707966</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09106464647989526</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08536141296556261</v>
+        <v>0.0844731696207438</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0983480026005181</v>
+        <v>0.09776999483094918</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>194374</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>170064</v>
+        <v>169205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>223601</v>
+        <v>226971</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05525128787086604</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04834108702521296</v>
+        <v>0.04809699780741617</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06355925324112378</v>
+        <v>0.06451718181119696</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>351</v>
@@ -8145,19 +8145,19 @@
         <v>239055</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>214049</v>
+        <v>215690</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>266794</v>
+        <v>270044</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06420796746629222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05749149946759306</v>
+        <v>0.05793228135232917</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07165827233737626</v>
+        <v>0.07253131537529427</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>551</v>
@@ -8166,19 +8166,19 @@
         <v>433429</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>399877</v>
+        <v>390713</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>476729</v>
+        <v>470999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05985649718416577</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05522297172113595</v>
+        <v>0.05395738974497642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06583617657228523</v>
+        <v>0.06504494391350958</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>56930</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44352</v>
+        <v>43213</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75801</v>
+        <v>77220</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01618238448227333</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01260710428425893</v>
+        <v>0.01228352140812369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02154650599542342</v>
+        <v>0.02194985048096066</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>107</v>
@@ -8216,19 +8216,19 @@
         <v>77788</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63031</v>
+        <v>62174</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96404</v>
+        <v>96656</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02089306170683872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01692945003588004</v>
+        <v>0.01669937059571808</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02589325824680215</v>
+        <v>0.02596090725707757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>167</v>
@@ -8237,19 +8237,19 @@
         <v>134717</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>115107</v>
+        <v>113218</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>159926</v>
+        <v>158473</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01860444886398858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01589626930074177</v>
+        <v>0.01563539714081177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02208581464069305</v>
+        <v>0.02188515160726585</v>
       </c>
     </row>
     <row r="27">
